--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="1110">
   <si>
     <t>zh_CN</t>
   </si>
@@ -3400,7 +3400,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  난…... 나는 신경쓰지 말고, 도망가, 어서! 카즈델에 가면, 카즈델에…… 도착…… 할 수 있다면……
+    <t xml:space="preserve">[name="살카즈 전사"]  난…… 나는 신경 쓰지 말고, 도망가, 어서! 카즈델에 가면, 카즈델에…… 도착…… 할 수 있다면……
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">알잖아, 내가 얼굴 들어내는 것을 좋아하지 않는단 걸. 하지만 라이타니아의 감염자들에겐 도움이 필요하다.
+    <t xml:space="preserve">알잖아, 내가 얼굴 드러내는 것을 좋아하지 않는단 걸. 하지만 라이타니아의 감염자들에겐 도움이 필요하다.
 </t>
   </si>
   <si>
@@ -3460,7 +3460,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  …….
+    <t xml:space="preserve">[name="살카즈 전사"]  ……
 </t>
   </si>
   <si>
@@ -3512,7 +3512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  대장의 아츠 능력은 대단하지만…... 사실, 대장이라도 이런 사람들에게는 어쩔 수 없을 거야……
+    <t xml:space="preserve">[name="라이타니아 감염자"]  대장의 아츠 능력은 대단하지만…… 사실, 대장이라도 이런 사람들에게는 어쩔 수 없을 거야……
 </t>
   </si>
   <si>
@@ -3752,10 +3752,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  ……
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="살카즈 전사"]  빌어먹을……
 </t>
   </si>
@@ -3812,7 +3808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">카즈델은 황폐한 황무지이다. 하지만 일부 유랑자들이 옛 전쟁 폐허 속에 꽤 번영한 도시를 세웠지.
+    <t xml:space="preserve">카즈델은 황폐한 황무지다. 하지만 일부 유랑자들이 옛 전쟁 폐허 속에 꽤 번영한 도시를 세웠지.
 </t>
   </si>
   <si>
@@ -3884,10 +3880,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  …….
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">[name="머드락"]  아…… 미안, 깜빡 졸았다……
 </t>
   </si>
@@ -4044,7 +4036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">때로는 운명과 같은 건 핑계다. 모든 바꿀 수 없는 삶의 궤적에 대한 핑계.
+    <t xml:space="preserve">때때로, 운명같은 건 핑계에 불과하다. 모든 바꿀 수 없는 삶의 궤적에 대한 핑계.
 </t>
   </si>
   <si>
@@ -4124,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  여기, 이 녹슨 단도…… 어쩌면 이 아이는 싸우다 죽은 걸지도 모르겠군.
+    <t xml:space="preserve">[name="살카즈 전사"]  여기, 이 녹슨 단검…… 어쩌면 이 아이는 싸우다 죽은 걸지도 모르겠군.
 </t>
   </si>
   <si>
@@ -6330,7 +6322,7 @@
         <v>587</v>
       </c>
       <c r="D108" t="s">
-        <v>935</v>
+        <v>862</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -6344,7 +6336,7 @@
         <v>659</v>
       </c>
       <c r="D109" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -6358,7 +6350,7 @@
         <v>660</v>
       </c>
       <c r="D110" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -6386,7 +6378,7 @@
         <v>661</v>
       </c>
       <c r="D112" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -6414,7 +6406,7 @@
         <v>662</v>
       </c>
       <c r="D114" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -6428,7 +6420,7 @@
         <v>663</v>
       </c>
       <c r="D115" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -6442,7 +6434,7 @@
         <v>664</v>
       </c>
       <c r="D116" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -6456,7 +6448,7 @@
         <v>665</v>
       </c>
       <c r="D117" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -6470,7 +6462,7 @@
         <v>666</v>
       </c>
       <c r="D118" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -6484,7 +6476,7 @@
         <v>667</v>
       </c>
       <c r="D119" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -6498,7 +6490,7 @@
         <v>668</v>
       </c>
       <c r="D120" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -6512,7 +6504,7 @@
         <v>669</v>
       </c>
       <c r="D121" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -6526,7 +6518,7 @@
         <v>670</v>
       </c>
       <c r="D122" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -6540,7 +6532,7 @@
         <v>671</v>
       </c>
       <c r="D123" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -6554,7 +6546,7 @@
         <v>672</v>
       </c>
       <c r="D124" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -6568,7 +6560,7 @@
         <v>673</v>
       </c>
       <c r="D125" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -6582,7 +6574,7 @@
         <v>674</v>
       </c>
       <c r="D126" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -6596,7 +6588,7 @@
         <v>675</v>
       </c>
       <c r="D127" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -6610,7 +6602,7 @@
         <v>676</v>
       </c>
       <c r="D128" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -6624,7 +6616,7 @@
         <v>677</v>
       </c>
       <c r="D129" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -6638,7 +6630,7 @@
         <v>678</v>
       </c>
       <c r="D130" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -6652,7 +6644,7 @@
         <v>679</v>
       </c>
       <c r="D131" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -6666,7 +6658,7 @@
         <v>680</v>
       </c>
       <c r="D132" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -6680,7 +6672,7 @@
         <v>681</v>
       </c>
       <c r="D133" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6694,7 +6686,7 @@
         <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6708,7 +6700,7 @@
         <v>682</v>
       </c>
       <c r="D135" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6722,7 +6714,7 @@
         <v>683</v>
       </c>
       <c r="D136" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6736,7 +6728,7 @@
         <v>684</v>
       </c>
       <c r="D137" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6750,7 +6742,7 @@
         <v>685</v>
       </c>
       <c r="D138" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6764,7 +6756,7 @@
         <v>686</v>
       </c>
       <c r="D139" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6778,7 +6770,7 @@
         <v>687</v>
       </c>
       <c r="D140" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6792,7 +6784,7 @@
         <v>688</v>
       </c>
       <c r="D141" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6806,7 +6798,7 @@
         <v>689</v>
       </c>
       <c r="D142" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6820,7 +6812,7 @@
         <v>574</v>
       </c>
       <c r="D143" t="s">
-        <v>968</v>
+        <v>849</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6848,7 +6840,7 @@
         <v>690</v>
       </c>
       <c r="D145" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6862,7 +6854,7 @@
         <v>691</v>
       </c>
       <c r="D146" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6876,7 +6868,7 @@
         <v>692</v>
       </c>
       <c r="D147" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6890,7 +6882,7 @@
         <v>693</v>
       </c>
       <c r="D148" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6904,7 +6896,7 @@
         <v>694</v>
       </c>
       <c r="D149" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6918,7 +6910,7 @@
         <v>695</v>
       </c>
       <c r="D150" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6932,7 +6924,7 @@
         <v>696</v>
       </c>
       <c r="D151" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6946,7 +6938,7 @@
         <v>697</v>
       </c>
       <c r="D152" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6960,7 +6952,7 @@
         <v>698</v>
       </c>
       <c r="D153" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6974,7 +6966,7 @@
         <v>699</v>
       </c>
       <c r="D154" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6988,7 +6980,7 @@
         <v>700</v>
       </c>
       <c r="D155" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -7002,7 +6994,7 @@
         <v>701</v>
       </c>
       <c r="D156" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -7016,7 +7008,7 @@
         <v>702</v>
       </c>
       <c r="D157" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -7044,7 +7036,7 @@
         <v>703</v>
       </c>
       <c r="D159" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -7058,7 +7050,7 @@
         <v>704</v>
       </c>
       <c r="D160" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -7072,7 +7064,7 @@
         <v>705</v>
       </c>
       <c r="D161" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -7086,7 +7078,7 @@
         <v>706</v>
       </c>
       <c r="D162" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -7100,7 +7092,7 @@
         <v>707</v>
       </c>
       <c r="D163" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -7114,7 +7106,7 @@
         <v>708</v>
       </c>
       <c r="D164" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -7128,7 +7120,7 @@
         <v>709</v>
       </c>
       <c r="D165" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -7142,7 +7134,7 @@
         <v>710</v>
       </c>
       <c r="D166" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -7156,7 +7148,7 @@
         <v>711</v>
       </c>
       <c r="D167" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7170,7 +7162,7 @@
         <v>712</v>
       </c>
       <c r="D168" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -7184,7 +7176,7 @@
         <v>713</v>
       </c>
       <c r="D169" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -7198,7 +7190,7 @@
         <v>714</v>
       </c>
       <c r="D170" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -7212,7 +7204,7 @@
         <v>715</v>
       </c>
       <c r="D171" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -7226,7 +7218,7 @@
         <v>716</v>
       </c>
       <c r="D172" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -7254,7 +7246,7 @@
         <v>717</v>
       </c>
       <c r="D174" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -7268,7 +7260,7 @@
         <v>718</v>
       </c>
       <c r="D175" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -7282,7 +7274,7 @@
         <v>719</v>
       </c>
       <c r="D176" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -7296,7 +7288,7 @@
         <v>720</v>
       </c>
       <c r="D177" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -7310,7 +7302,7 @@
         <v>721</v>
       </c>
       <c r="D178" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -7324,7 +7316,7 @@
         <v>722</v>
       </c>
       <c r="D179" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -7338,7 +7330,7 @@
         <v>723</v>
       </c>
       <c r="D180" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -7352,7 +7344,7 @@
         <v>724</v>
       </c>
       <c r="D181" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -7366,7 +7358,7 @@
         <v>725</v>
       </c>
       <c r="D182" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -7380,7 +7372,7 @@
         <v>726</v>
       </c>
       <c r="D183" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -7394,7 +7386,7 @@
         <v>727</v>
       </c>
       <c r="D184" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -7408,7 +7400,7 @@
         <v>728</v>
       </c>
       <c r="D185" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -7422,7 +7414,7 @@
         <v>729</v>
       </c>
       <c r="D186" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -7436,7 +7428,7 @@
         <v>730</v>
       </c>
       <c r="D187" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -7450,7 +7442,7 @@
         <v>731</v>
       </c>
       <c r="D188" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -7464,7 +7456,7 @@
         <v>732</v>
       </c>
       <c r="D189" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -7478,7 +7470,7 @@
         <v>733</v>
       </c>
       <c r="D190" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -7492,7 +7484,7 @@
         <v>734</v>
       </c>
       <c r="D191" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -7506,7 +7498,7 @@
         <v>735</v>
       </c>
       <c r="D192" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -7520,7 +7512,7 @@
         <v>736</v>
       </c>
       <c r="D193" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -7534,7 +7526,7 @@
         <v>737</v>
       </c>
       <c r="D194" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -7548,7 +7540,7 @@
         <v>738</v>
       </c>
       <c r="D195" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -7562,7 +7554,7 @@
         <v>739</v>
       </c>
       <c r="D196" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -7576,7 +7568,7 @@
         <v>740</v>
       </c>
       <c r="D197" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -7590,7 +7582,7 @@
         <v>741</v>
       </c>
       <c r="D198" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -7604,7 +7596,7 @@
         <v>742</v>
       </c>
       <c r="D199" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -7618,7 +7610,7 @@
         <v>743</v>
       </c>
       <c r="D200" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -7632,7 +7624,7 @@
         <v>744</v>
       </c>
       <c r="D201" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -7646,7 +7638,7 @@
         <v>745</v>
       </c>
       <c r="D202" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -7660,7 +7652,7 @@
         <v>746</v>
       </c>
       <c r="D203" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -7674,7 +7666,7 @@
         <v>747</v>
       </c>
       <c r="D204" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7688,7 +7680,7 @@
         <v>748</v>
       </c>
       <c r="D205" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7702,7 +7694,7 @@
         <v>749</v>
       </c>
       <c r="D206" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7716,7 +7708,7 @@
         <v>750</v>
       </c>
       <c r="D207" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7730,7 +7722,7 @@
         <v>751</v>
       </c>
       <c r="D208" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7744,7 +7736,7 @@
         <v>752</v>
       </c>
       <c r="D209" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7758,7 +7750,7 @@
         <v>753</v>
       </c>
       <c r="D210" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7772,7 +7764,7 @@
         <v>754</v>
       </c>
       <c r="D211" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7786,7 +7778,7 @@
         <v>755</v>
       </c>
       <c r="D212" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7800,7 +7792,7 @@
         <v>756</v>
       </c>
       <c r="D213" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7814,7 +7806,7 @@
         <v>757</v>
       </c>
       <c r="D214" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7828,7 +7820,7 @@
         <v>758</v>
       </c>
       <c r="D215" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7842,7 +7834,7 @@
         <v>759</v>
       </c>
       <c r="D216" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7856,7 +7848,7 @@
         <v>760</v>
       </c>
       <c r="D217" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7870,7 +7862,7 @@
         <v>761</v>
       </c>
       <c r="D218" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7884,7 +7876,7 @@
         <v>762</v>
       </c>
       <c r="D219" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7898,7 +7890,7 @@
         <v>763</v>
       </c>
       <c r="D220" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7912,7 +7904,7 @@
         <v>764</v>
       </c>
       <c r="D221" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7926,7 +7918,7 @@
         <v>765</v>
       </c>
       <c r="D222" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7940,7 +7932,7 @@
         <v>766</v>
       </c>
       <c r="D223" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7954,7 +7946,7 @@
         <v>767</v>
       </c>
       <c r="D224" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7968,7 +7960,7 @@
         <v>768</v>
       </c>
       <c r="D225" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7982,7 +7974,7 @@
         <v>769</v>
       </c>
       <c r="D226" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7996,7 +7988,7 @@
         <v>770</v>
       </c>
       <c r="D227" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -8010,7 +8002,7 @@
         <v>771</v>
       </c>
       <c r="D228" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -8024,7 +8016,7 @@
         <v>772</v>
       </c>
       <c r="D229" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -8038,7 +8030,7 @@
         <v>773</v>
       </c>
       <c r="D230" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -8052,7 +8044,7 @@
         <v>774</v>
       </c>
       <c r="D231" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -8066,7 +8058,7 @@
         <v>775</v>
       </c>
       <c r="D232" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -8080,7 +8072,7 @@
         <v>776</v>
       </c>
       <c r="D233" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -8094,7 +8086,7 @@
         <v>777</v>
       </c>
       <c r="D234" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -8108,7 +8100,7 @@
         <v>778</v>
       </c>
       <c r="D235" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -8122,7 +8114,7 @@
         <v>779</v>
       </c>
       <c r="D236" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -8136,7 +8128,7 @@
         <v>780</v>
       </c>
       <c r="D237" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -8164,7 +8156,7 @@
         <v>781</v>
       </c>
       <c r="D239" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -8178,7 +8170,7 @@
         <v>782</v>
       </c>
       <c r="D240" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -8192,7 +8184,7 @@
         <v>783</v>
       </c>
       <c r="D241" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -8206,7 +8198,7 @@
         <v>784</v>
       </c>
       <c r="D242" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -8220,7 +8212,7 @@
         <v>785</v>
       </c>
       <c r="D243" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -8234,7 +8226,7 @@
         <v>786</v>
       </c>
       <c r="D244" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -8248,7 +8240,7 @@
         <v>787</v>
       </c>
       <c r="D245" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -8262,7 +8254,7 @@
         <v>788</v>
       </c>
       <c r="D246" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -8276,7 +8268,7 @@
         <v>789</v>
       </c>
       <c r="D247" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -8290,7 +8282,7 @@
         <v>790</v>
       </c>
       <c r="D248" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -8304,7 +8296,7 @@
         <v>791</v>
       </c>
       <c r="D249" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -8318,7 +8310,7 @@
         <v>792</v>
       </c>
       <c r="D250" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -8332,7 +8324,7 @@
         <v>793</v>
       </c>
       <c r="D251" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -8346,7 +8338,7 @@
         <v>794</v>
       </c>
       <c r="D252" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -8360,7 +8352,7 @@
         <v>795</v>
       </c>
       <c r="D253" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -8374,7 +8366,7 @@
         <v>796</v>
       </c>
       <c r="D254" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -8388,7 +8380,7 @@
         <v>797</v>
       </c>
       <c r="D255" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -8402,7 +8394,7 @@
         <v>798</v>
       </c>
       <c r="D256" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -8416,7 +8408,7 @@
         <v>799</v>
       </c>
       <c r="D257" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -8430,7 +8422,7 @@
         <v>800</v>
       </c>
       <c r="D258" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -8444,7 +8436,7 @@
         <v>801</v>
       </c>
       <c r="D259" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -8458,7 +8450,7 @@
         <v>802</v>
       </c>
       <c r="D260" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -8472,7 +8464,7 @@
         <v>803</v>
       </c>
       <c r="D261" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -8486,7 +8478,7 @@
         <v>804</v>
       </c>
       <c r="D262" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -8500,7 +8492,7 @@
         <v>805</v>
       </c>
       <c r="D263" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -8514,7 +8506,7 @@
         <v>806</v>
       </c>
       <c r="D264" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -8528,7 +8520,7 @@
         <v>807</v>
       </c>
       <c r="D265" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -8542,7 +8534,7 @@
         <v>808</v>
       </c>
       <c r="D266" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -8556,7 +8548,7 @@
         <v>809</v>
       </c>
       <c r="D267" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -8570,7 +8562,7 @@
         <v>810</v>
       </c>
       <c r="D268" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -8584,7 +8576,7 @@
         <v>811</v>
       </c>
       <c r="D269" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -8598,7 +8590,7 @@
         <v>812</v>
       </c>
       <c r="D270" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -8612,7 +8604,7 @@
         <v>813</v>
       </c>
       <c r="D271" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -8626,7 +8618,7 @@
         <v>814</v>
       </c>
       <c r="D272" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -8640,7 +8632,7 @@
         <v>815</v>
       </c>
       <c r="D273" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -8654,7 +8646,7 @@
         <v>816</v>
       </c>
       <c r="D274" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -8668,7 +8660,7 @@
         <v>817</v>
       </c>
       <c r="D275" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -8682,7 +8674,7 @@
         <v>818</v>
       </c>
       <c r="D276" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8696,7 +8688,7 @@
         <v>819</v>
       </c>
       <c r="D277" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8710,7 +8702,7 @@
         <v>820</v>
       </c>
       <c r="D278" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8724,7 +8716,7 @@
         <v>821</v>
       </c>
       <c r="D279" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8738,7 +8730,7 @@
         <v>558</v>
       </c>
       <c r="D280" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8752,7 +8744,7 @@
         <v>822</v>
       </c>
       <c r="D281" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8766,7 +8758,7 @@
         <v>823</v>
       </c>
       <c r="D282" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8780,7 +8772,7 @@
         <v>824</v>
       </c>
       <c r="D283" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8794,7 +8786,7 @@
         <v>825</v>
       </c>
       <c r="D284" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8808,7 +8800,7 @@
         <v>826</v>
       </c>
       <c r="D285" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8822,7 +8814,7 @@
         <v>827</v>
       </c>
       <c r="D286" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8836,7 +8828,7 @@
         <v>828</v>
       </c>
       <c r="D287" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8850,7 +8842,7 @@
         <v>829</v>
       </c>
       <c r="D288" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8864,7 +8856,7 @@
         <v>830</v>
       </c>
       <c r="D289" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8878,7 +8870,7 @@
         <v>831</v>
       </c>
       <c r="D290" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8892,7 +8884,7 @@
         <v>832</v>
       </c>
       <c r="D291" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
   </sheetData>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
@@ -2324,7 +2324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We’ve gone through a lot. One mortifying thing is we’re called “Mudrock Squad” now.
+    <t xml:space="preserve">We’ve gone through a lot. One mortifying thing is we’re called 'Mudrock Squad' now.
 </t>
   </si>
   <si>
@@ -2436,7 +2436,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  No guarantees they’re to our “rear”.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  No guarantees they’re to our 'rear'.
 </t>
   </si>
   <si>
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hah-hah... the imagination they must have to “use” Infected like this... Those hatted casters... they’re terrifying.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hah-hah... the imagination they must have to 'use' Infected like this... Those hatted casters... they’re terrifying.
 </t>
   </si>
   <si>
@@ -2688,7 +2688,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...As long as they’re not “Knights,” worse has not yet come to worst.
+    <t xml:space="preserve">[name="Mudrock"]  ...As long as they’re not 'Knights,' worse has not yet come to worst.
 </t>
   </si>
   <si>
@@ -3068,7 +3068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’ve got a marketplace.  Some plots of land up for sale in there.  It’s an old Sarkaz who used to be a mercenary, managing those. Should be able to “get along.”
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’ve got a marketplace.  Some plots of land up for sale in there.  It’s an old Sarkaz who used to be a mercenary, managing those. Should be able to 'get along.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
@@ -2248,11 +2248,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I received your letter. I’m happy to hear you made it to Columbia safely.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’re all doing well enough. At the least, we’re all alive.
+    <t xml:space="preserve">I received your letter. I'm happy to hear you made it to Columbia safely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We're all doing well enough. At the least, we're all alive.
 </t>
   </si>
   <si>
@@ -2264,11 +2264,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m glad you could escape it all, Bob. Really.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I still remember your invitation. I’m very grateful you still remember us Sarkaz.
+    <t xml:space="preserve">I'm glad you could escape it all, Bob. Really.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I still remember your invitation. I'm very grateful you still remember us Sarkaz.
 </t>
   </si>
   <si>
@@ -2284,7 +2284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  No... No, don’t say that, don’t...
+    <t xml:space="preserve">[name="Mudrock"]  No... No, don't say that, don't...
 </t>
   </si>
   <si>
@@ -2312,11 +2312,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Let... let’s go. Hurry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But it’s hard to say we’re doing well.
+    <t xml:space="preserve">[name="Mudrock"]  Let... let's go. Hurry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But it's hard to say we're doing well.
 </t>
   </si>
   <si>
@@ -2324,19 +2324,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We’ve gone through a lot. One mortifying thing is we’re called 'Mudrock Squad' now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You know I don’t like to show myself. But the Infected in Leithania needed help. They needed to be saved.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I couldn’t leave them to their fates, Bob. Just like you’d never leave your bounty hunter brothers behind. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  Why, why haven’t the scouts reported back yet?
+    <t xml:space="preserve">We've gone through a lot. One mortifying thing is we're called 'Mudrock Squad' now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You know I don't like to show myself. But the Infected in Leithania needed help. They needed to be saved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I couldn't leave them to their fates, Bob. Just like you'd never leave your bounty hunter brothers behind. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  Why, why haven't the scouts reported back yet?
 </t>
   </si>
   <si>
@@ -2344,19 +2344,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Don’t panic.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The fog in this forest’s thick. They wouldn’t find us again so easily...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  But, but it’s been eight days, already!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  And we’ve lost twelve of our own! We don’t even know who it is hunting us!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Don't panic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The fog in this forest's thick. They wouldn't find us again so easily...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  But, but it's been eight days, already!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  And we've lost twelve of our own! We don't even know who it is hunting us!
 </t>
   </si>
   <si>
@@ -2364,7 +2364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Don’t be too hard on anyone... Against enemies like these, it’s only natural to panic. It’s only right.
+    <t xml:space="preserve">[name="Mudrock"]  Don't be too hard on anyone... Against enemies like these, it's only natural to panic. It's only right.
 </t>
   </si>
   <si>
@@ -2372,19 +2372,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...The one thing we can be sure is that they’re casters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  My friends can be my eyes, but that’s all. No way to seize their silhouettes in this fog.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  But it’s been non-stop fireballs, hailstones and hurricanes! They’ve been right by us all this time, they’ve... wait!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  What if this days-long fog is their Arts as well? This isn’t normal weather...! If they can make eyes of fire dance in the sky, they can— 
+    <t xml:space="preserve">[name="Mudrock"]  ...The one thing we can be sure is that they're casters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  My friends can be my eyes, but that's all. No way to seize their silhouettes in this fog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  But it's been non-stop fireballs, hailstones and hurricanes! They've been right by us all this time, they've... wait!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  What if this days-long fog is their Arts as well? This isn't normal weather...! If they can make eyes of fire dance in the sky, they can— 
 </t>
   </si>
   <si>
@@ -2392,11 +2392,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’re leaning on the back foot, though. That’s a fact.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We have no clue about their identity, their numbers, or how they’re even tracking us.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We're leaning on the back foot, though. That's a fact.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We have no clue about their identity, their numbers, or how they're even tracking us.
 </t>
   </si>
   <si>
@@ -2404,15 +2404,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...Do Leithanien casters do this? If so, it’s news to me... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  I... I don’t know... I’ve never known casters like this...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  And if the Captain’s tremendous gift for Arts... if the Captain can’t do anything, what can we do...?
+    <t xml:space="preserve">[name="Mudrock"]  ...Do Leithanien casters do this? If so, it's news to me... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  I... I don't know... I've never known casters like this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  And if the Captain's tremendous gift for Arts... if the Captain can't do anything, what can we do...?
 </t>
   </si>
   <si>
@@ -2420,11 +2420,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we keep pressing forward like we planned, I don’t know even how many attacks we’ll take before we’re out of this forest—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  But if we wanted to fight back, we’d be fighting unknown foes in horrible visibility and falling temperatures.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If we keep pressing forward like we planned, I don't know even how many attacks we'll take before we're out of this forest—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  But if we wanted to fight back, we'd be fighting unknown foes in horrible visibility and falling temperatures.
 </t>
   </si>
   <si>
@@ -2432,11 +2432,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  I’ll watch the rear personally.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  No guarantees they’re to our 'rear'.
+    <t xml:space="preserve">[name="Mudrock"]  I'll watch the rear personally.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  No guarantees they're to our 'rear'.
 </t>
   </si>
   <si>
@@ -2444,11 +2444,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Fine. But don’t go heavy with your Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We can’t risk you of all people falling.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...Fine. But don't go heavy with your Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We can't risk you of all people falling.
 </t>
   </si>
   <si>
@@ -2464,7 +2464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  So long as you’re in contact with the main group, keep leading them forward.
+    <t xml:space="preserve">[name="Mudrock"]  So long as you're in contact with the main group, keep leading them forward.
 </t>
   </si>
   <si>
@@ -2476,43 +2476,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’ve heard that the Infected are allowed a life so long as they work. They form the low-cost workforce she needs to serve her limitless expansion, and nothing more.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even so, I guess you’re all very suited to the work? Is your farm big? Are the wheat fields swept in the autumn winds as beautiful as the movies say?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Though it’s hard to admit, I’ve never seen real hops for myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve asked a lot of people, and I’ve even sought out books on botany... so I have an idea of what hops flowers look like.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If I find my own calm corner of the world to live in, I’ll write to you from there. If I do, could you send me a small sample in return?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  What’s happening!? What’s going on!?  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  My skin... the crystals are moving, they’re moving inside me—I—my—gaaahh—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’re... they’re trying to use the Infected as Arts Units...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They couldn’t... they can’t! Where the hell are the casters? These Arts... how could someone manage to do this!?   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Where’s Mudrock!? Is Mudrock still there!?  
+    <t xml:space="preserve">I've heard that the Infected are allowed a life so long as they work. They form the low-cost workforce she needs to serve her limitless expansion, and nothing more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even so, I guess you're all very suited to the work? Is your farm big? Are the wheat fields swept in the autumn winds as beautiful as the movies say?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though it's hard to admit, I've never seen real hops for myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've asked a lot of people, and I've even sought out books on botany... so I have an idea of what hops flowers look like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I find my own calm corner of the world to live in, I'll write to you from there. If I do, could you send me a small sample in return?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  What's happening!? What's going on!?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  My skin... the crystals are moving, they're moving inside me—I—my—gaaahh—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They're... they're trying to use the Infected as Arts Units...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They couldn't... they can't! Where the hell are the casters? These Arts... how could someone manage to do this!?   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Where's Mudrock!? Is Mudrock still there!?  
 </t>
   </si>
   <si>
@@ -2524,11 +2524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’re nearby, I can feel it, it’s like witchcraft... No modern Arts are like this...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’re using... the Originium—ghhak—inside the Infected...!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They're nearby, I can feel it, it's like witchcraft... No modern Arts are like this...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They're using... the Originium—ghhak—inside the Infected...!
 </t>
   </si>
   <si>
@@ -2540,11 +2540,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t... don’t waste the energy, Mudrock!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re still... far from returning to the fertile land... You need to live on!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't... don't waste the energy, Mudrock!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're still... far from returning to the fertile land... You need to live on!
 </t>
   </si>
   <si>
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hah-hah... the imagination they must have to 'use' Infected like this... Those hatted casters... they’re terrifying.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Hah-hah... the imagination they must have to 'use' Infected like this... Those hatted casters... they're terrifying.
 </t>
   </si>
   <si>
@@ -2564,7 +2564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  —I’m here.
+    <t xml:space="preserve">[name="Mudrock"]  —I'm here.
 </t>
   </si>
   <si>
@@ -2576,11 +2576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Didn’t we know deep down... we had nothing, wherever we went. As long we can live on, who cares where we go?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Grhk—Like hell I’d let my life be their weapon! Tell all the others—I died fighting!
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Didn't we know deep down... we had nothing, wherever we went. As long we can live on, who cares where we go?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Grhk—Like hell I'd let my life be their weapon! Tell all the others—I died fighting!
 </t>
   </si>
   <si>
@@ -2588,7 +2588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  You... Why...? No warrior’s end should be by his own hands...
+    <t xml:space="preserve">[name="Mudrock"]  You... Why...? No warrior's end should be by his own hands...
 </t>
   </si>
   <si>
@@ -2624,7 +2624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We’ve departed Leithania. To return to Kazdel.
+    <t xml:space="preserve">We've departed Leithania. To return to Kazdel.
 </t>
   </si>
   <si>
@@ -2632,7 +2632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">If we can make it to Kazdel safely, and the Infected who’ve come with us can settle down—
+    <t xml:space="preserve">If we can make it to Kazdel safely, and the Infected who've come with us can settle down—
 </t>
   </si>
   <si>
@@ -2640,7 +2640,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, you’re okay! The others... 
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, you're okay! The others... 
 </t>
   </si>
   <si>
@@ -2660,7 +2660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Our group... has so many civilians, still. We can’t... 
+    <t xml:space="preserve">[name="Mudrock"]  Our group... has so many civilians, still. We can't... 
 </t>
   </si>
   <si>
@@ -2688,11 +2688,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...As long as they’re not 'Knights,' worse has not yet come to worst.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Don’t worry... At the very least, for now... we’ve escaped them.
+    <t xml:space="preserve">[name="Mudrock"]  ...As long as they're not 'Knights,' worse has not yet come to worst.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Don't worry... At the very least, for now... we've escaped them.
 </t>
   </si>
   <si>
@@ -2700,7 +2700,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">So long that I’ve forgotten how my homeland looks.
+    <t xml:space="preserve">So long that I've forgotten how my homeland looks.
 </t>
   </si>
   <si>
@@ -2708,11 +2708,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Resplendent cities the Sarkaz had never been allowed to have. But I’m only asking for somewhere quiet. A place to catch my breath for a while, in the middle of this age-old conflict.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...Past this mountain, we’ll be in Kazdel...
+    <t xml:space="preserve">Resplendent cities the Sarkaz had never been allowed to have. But I'm only asking for somewhere quiet. A place to catch my breath for a while, in the middle of this age-old conflict.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  ...Past this mountain, we'll be in Kazdel...
 </t>
   </si>
   <si>
@@ -2720,7 +2720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  ...Is that where we’re headed?
+    <t xml:space="preserve">[name="Leithanien Infected"]  ...Is that where we're headed?
 </t>
   </si>
   <si>
@@ -2732,7 +2732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, we’ve finished securing our route ahead. No sign of any pursuers.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Mudrock, we've finished securing our route ahead. No sign of any pursuers.
 </t>
   </si>
   <si>
@@ -2740,7 +2740,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Let’s move. We’ll pitch our camp on the other side of the river before sundown.
+    <t xml:space="preserve">[name="Mudrock"]  Let's move. We'll pitch our camp on the other side of the river before sundown.
 </t>
   </si>
   <si>
@@ -2752,23 +2752,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...We can’t fight them. Too dangerous... Would you send your people to die like that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  We-We’re sorry... we just...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  No... I wasn’t saying to... *Sigh*.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Move. Don’t look back.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  I’ll keep the rear.
+    <t xml:space="preserve">[name="Mudrock"]  ...We can't fight them. Too dangerous... Would you send your people to die like that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  We-We're sorry... we just...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  No... I wasn't saying to... *Sigh*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Move. Don't look back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  I'll keep the rear.
 </t>
   </si>
   <si>
@@ -2776,23 +2776,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re exhausted.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You haven’t given your Arts any rest since the attack.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  I’ll be fine.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  *Sigh* No-one can change your mind, I’ve learned that much.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...You know, I’m beginning to miss the good old days, when we were fighting Leithaniens we could actually see.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're exhausted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You haven't given your Arts any rest since the attack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  I'll be fine.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  *Sigh* No-one can change your mind, I've learned that much.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...You know, I'm beginning to miss the good old days, when we were fighting Leithaniens we could actually see.
 </t>
   </si>
   <si>
@@ -2800,7 +2800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We did everything we could to avoid conflict with them... After all, they didn’t want to risk going down with us.
+    <t xml:space="preserve">[name="Mudrock"]  We did everything we could to avoid conflict with them... After all, they didn't want to risk going down with us.
 </t>
   </si>
   <si>
@@ -2812,15 +2812,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...Casters cloaking their true colors. Fearful Arts. Completely unable to protect ourselves. Where’s the shame in being afraid?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Yeah. You’re not wrong, for sure.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...If, and this is only hypothetical, if they were still behind us even now... or suppose they’re on the other side of the bridge. What then?
+    <t xml:space="preserve">[name="Mudrock"]  ...Casters cloaking their true colors. Fearful Arts. Completely unable to protect ourselves. Where's the shame in being afraid?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Yeah. You're not wrong, for sure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...If, and this is only hypothetical, if they were still behind us even now... or suppose they're on the other side of the bridge. What then?
 </t>
   </si>
   <si>
@@ -2832,7 +2832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  But the strongest caster is still a human. Don’t be afraid.
+    <t xml:space="preserve">[name="Mudrock"]  But the strongest caster is still a human. Don't be afraid.
 </t>
   </si>
   <si>
@@ -2844,11 +2844,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Turning Infected into Arts Units... it’s possible, but the concept itself... no, even the raw difficulty would be far too...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  Ah, I see... they’re experimenting.
+    <t xml:space="preserve">[name="Mudrock"]  Turning Infected into Arts Units... it's possible, but the concept itself... no, even the raw difficulty would be far too...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  Ah, I see... they're experimenting.
 </t>
   </si>
   <si>
@@ -2856,7 +2856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’re the perfect test subjects. An inexhaustible supply of them.
+    <t xml:space="preserve">[name="Mudrock"]  We're the perfect test subjects. An inexhaustible supply of them.
 </t>
   </si>
   <si>
@@ -2876,7 +2876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  The final stretch... and then we’ll be...
+    <t xml:space="preserve">[name="Mudrock"]  The final stretch... and then we'll be...
 </t>
   </si>
   <si>
@@ -2928,7 +2928,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">There are times when fate, destiny and such become a simple excuse. A byword for all of life’s unchanging paths. 
+    <t xml:space="preserve">There are times when fate, destiny and such become a simple excuse. A byword for all of life's unchanging paths. 
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  Kazdel’s villages... are more prosperous than before.
+    <t xml:space="preserve">[name="Mudrock"]  Kazdel's villages... are more prosperous than before.
 </t>
   </si>
   <si>
@@ -2972,11 +2972,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  There’s fog again... I don’t know if it’s just the fog of morning in the mountains, or...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  But either way, everyone’s shaken. We need you to calm us all down.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  There's fog again... I don't know if it's just the fog of morning in the mountains, or...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  But either way, everyone's shaken. We need you to calm us all down.
 </t>
   </si>
   <si>
@@ -2992,7 +2992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’re all here.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We're all here.
 </t>
   </si>
   <si>
@@ -3000,7 +3000,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  What are...? Are these someone’s bones? Sarkaz remains?  
+    <t xml:space="preserve">[name="Leithanien Infected"]  What are...? Are these someone's bones? Sarkaz remains?  
 </t>
   </si>
   <si>
@@ -3008,7 +3008,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Here. It’s a broken knife. Rusted. This child might’ve died in battle.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Here. It's a broken knife. Rusted. This child might've died in battle.
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’ve made it back.
+    <t xml:space="preserve">[name="Mudrock"]  We've made it back.
 </t>
   </si>
   <si>
@@ -3052,23 +3052,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...I don’t know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  How’s the village?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  If I had to say, it’s bustling with life.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  There’s a good few Caprinae, not to mention a decent amount of Sami people.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  They’ve got a marketplace.  Some plots of land up for sale in there.  It’s an old Sarkaz who used to be a mercenary, managing those. Should be able to 'get along.'
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  How's the village?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  If I had to say, it's bustling with life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  There's a good few Caprinae, not to mention a decent amount of Sami people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  They've got a marketplace.  Some plots of land up for sale in there.  It's an old Sarkaz who used to be a mercenary, managing those. Should be able to 'get along.'
 </t>
   </si>
   <si>
@@ -3076,7 +3076,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  We’re very close to the village now. From here to there, we should have no trouble...
+    <t xml:space="preserve">[name="Mudrock"]  We're very close to the village now. From here to there, we should have no trouble...
 </t>
   </si>
   <si>
@@ -3104,7 +3104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t look back.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't look back.
 </t>
   </si>
   <si>
@@ -3112,27 +3112,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...He’s right. I’m just in it to help a bunch of old bastards get one over. You’re still young. Now’s the time to go. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Young Sarkaz Warrior"]  Huh? You want me to run? I’d have to twist my own damn head off for you to kick if I wanted to look back.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leithanien Infected"]  But we can’t just—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...We won’t look back. All who want to leave, can leave now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  There’s no shame in it. There’s no need to blame yourself... We will protect this bridge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...Supposing this is all a false alarm, and they’ve long given up, we’ll see you in town.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  ...He's right. I'm just in it to help a bunch of old bastards get one over. You're still young. Now's the time to go. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Young Sarkaz Warrior"]  Huh? You want me to run? I'd have to twist my own damn head off for you to kick if I wanted to look back.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leithanien Infected"]  But we can't just—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  ...We won't look back. All who want to leave, can leave now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  There's no shame in it. There's no need to blame yourself... We will protect this bridge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  ...Supposing this is all a false alarm, and they've long given up, we'll see you in town.
 </t>
   </si>
   <si>
@@ -3152,7 +3152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">We can’t escape it, any of us. In the end, we all have to raise our weapons and confront the present we built with our past.
+    <t xml:space="preserve">We can't escape it, any of us. In the end, we all have to raise our weapons and confront the present we built with our past.
 </t>
   </si>
   <si>
@@ -3160,11 +3160,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Why don’t you look back for yourself and see?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  I... I’m just a little worried...
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Why don't you look back for yourself and see?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  I... I'm just a little worried...
 </t>
   </si>
   <si>
@@ -3172,7 +3172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Young Sarkaz Warrior"]  Don’t mess with me, alright? Didn’t I tell you I’d have to twist my head off to look back? 
+    <t xml:space="preserve">[name="Young Sarkaz Warrior"]  Don't mess with me, alright? Didn't I tell you I'd have to twist my head off to look back? 
 </t>
   </si>
   <si>
@@ -3188,7 +3188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard"]  The fog’s getting thicker... Captain, should we still keep an eye on them?
+    <t xml:space="preserve">[name="Rhodes Island Guard"]  The fog's getting thicker... Captain, should we still keep an eye on them?
 </t>
   </si>
   <si>
@@ -3200,11 +3200,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Imagine, the Twin Empresses ascending the throne. It’s been decades since the Witch King passed—;—Leithania still hosts lunatics who mire themselves in the Witch King’s shadow.",values="1;2")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard"]  Err... Captain, this stuff you talk about always flies over my head. Couldn’t you say things a little simpler?
+    <t xml:space="preserve">[Decision(options="Imagine, the Twin Empresses ascending the throne. It's been decades since the Witch King passed—;—Leithania still hosts lunatics who mire themselves in the Witch King's shadow.",values="1;2")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Guard"]  Err... Captain, this stuff you talk about always flies over my head. Couldn't you say things a little simpler?
 </t>
   </si>
   <si>
@@ -3216,7 +3216,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard"]  Whoa, that’s simple alright... But saving Reunion?
+    <t xml:space="preserve">[name="Rhodes Island Guard"]  Whoa, that's simple alright... But saving Reunion?
 </t>
   </si>
   <si>
@@ -3224,7 +3224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard"]  But you said they were all super powerful, right?! At least wait until our team’s all together before— 
+    <t xml:space="preserve">[name="Rhodes Island Guard"]  But you said they were all super powerful, right?! At least wait until our team's all together before— 
 </t>
   </si>
   <si>
@@ -3232,7 +3232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="They’re no knights and garner no art’s favor. They’re jesters who flaunt witchcraft about.", values="1")]
+    <t xml:space="preserve">[Decision(options="They're no knights and garner no art's favor. They're jesters who flaunt witchcraft about.", values="1")]
 </t>
   </si>
   <si>
@@ -3240,7 +3240,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  —Someone’s coming.
+    <t xml:space="preserve">[name="Mudrock"]  —Someone's coming.
 </t>
   </si>
   <si>
@@ -3260,19 +3260,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  That was a single push... and Mudrock’s Colossus just...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  ...Don’t engage! Fall back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mudrock"]  That’s... That’s a Sarkaz...! And... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’ve heard of you, in Operator Folinic’s report. The Sarkaz who makes the earth dance.", values="1")]
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  That was a single push... and Mudrock's Colossus just...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  ...Don't engage! Fall back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mudrock"]  That's... That's a Sarkaz...! And... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I've heard of you, in Operator Folinic's report. The Sarkaz who makes the earth dance.", values="1")]
 </t>
   </si>
   <si>
@@ -3284,7 +3284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mudrock"]  —You’re not a Leithanien. You give off a very unusual feeling... and you’re so young...
+    <t xml:space="preserve">[name="Mudrock"]  —You're not a Leithanien. You give off a very unusual feeling... and you're so young...
 </t>
   </si>
   <si>
@@ -3308,11 +3308,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But there’s no need to mourn. They fought to protect innocent Infected. As Sarkaz mercenaries, they never thought they’d get to die so nobly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maybe death can’t be defined in terms of how noble it was. But the people who live on have no doubt in their minds. They died with honor.
+    <t xml:space="preserve">But there's no need to mourn. They fought to protect innocent Infected. As Sarkaz mercenaries, they never thought they'd get to die so nobly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maybe death can't be defined in terms of how noble it was. But the people who live on have no doubt in their minds. They died with honor.
 </t>
   </si>
   <si>
@@ -3328,19 +3328,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I haven’t sorted it all out yet. But we must walk forward. Only then can I shoulder all my past wrongs. Only then can I let so many more people who need not die, live on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oh, before I forget. I’ve heard a few things about you here. From a girl named Grani. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I couldn’t find a home for my people like you did. I couldn’t hold a candle to you. That’s my shame.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Live on well, Bob. Maybe one day... far in the future, I’ll be able to see you and your people in Columbia.
+    <t xml:space="preserve">I haven't sorted it all out yet. But we must walk forward. Only then can I shoulder all my past wrongs. Only then can I let so many more people who need not die, live on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oh, before I forget. I've heard a few things about you here. From a girl named Grani. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I couldn't find a home for my people like you did. I couldn't hold a candle to you. That's my shame.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live on well, Bob. Maybe one day... far in the future, I'll be able to see you and your people in Columbia.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
+++ b/story/Activity Story 活动剧情/act13d0 Rewinding Breeze 踏寻往昔之风 在りし日の風を求めて/level_act13d0_st04.xlsx
@@ -3420,7 +3420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">너희와 헤어지고 나서, 우리는 라이타니아로 향했다.
+    <t xml:space="preserve">너희와 헤어지고 나서, 우리는 라이타니엔으로 향했다.
 </t>
   </si>
   <si>
@@ -3428,7 +3428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">알잖아, 내가 얼굴 드러내는 것을 좋아하지 않는단 걸. 하지만 라이타니아의 감염자들에겐 도움이 필요하다.
+    <t xml:space="preserve">알잖아, 내가 얼굴 드러내는 것을 좋아하지 않는단 걸. 하지만 라이타니엔의 감염자들에겐 도움이 필요하다.
 </t>
   </si>
   <si>
@@ -3436,11 +3436,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  정찰병은 왜 아직도 응답이 없는 거지?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  설마 그들도……?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  정찰병은 왜 아직도 응답이 없는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  설마 그들도……?
 </t>
   </si>
   <si>
@@ -3452,11 +3452,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  그래도, 벌써 여드레나 지났잖아!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  우리는 스무 명의 동료들을 잃었지만, 대체 누가 우리를 죽이려 쫓아오는지도 모르고 있다고!
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  그래도, 벌써 여드레나 지났잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  우리는 스무 명의 동료들을 잃었지만, 대체 누가 우리를 죽이려 쫓아오는지도 모르고 있다고!
 </t>
   </si>
   <si>
@@ -3480,11 +3480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  하지만 얼음, 태풍, 화염구 같은 아츠들이 계속 들이 닥치고 있잖아. 그들은 분명 계속 우리 주변에 있을 거야…… 아!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  어쩌면 요 며칠 동안 계속된 짙은 안개도 그들의 아츠일지도 몰라. 날씨가 너무 비정상적이잖아! 불덩이 같은 눈도 하늘에 날려 보내는데, 이 정도쯤이야……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  하지만 얼음, 태풍, 화염구 같은 아츠들이 계속 들이 닥치고 있잖아. 그들은 분명 계속 우리 주변에 있을 거야…… 아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  어쩌면 요 며칠 동안 계속된 짙은 안개도 그들의 아츠일지도 몰라. 날씨가 너무 비정상적이잖아! 불덩이 같은 눈도 하늘에 날려 보내는데, 이 정도쯤이야……
 </t>
   </si>
   <si>
@@ -3504,15 +3504,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  ……이것도 라이타니아 아츠의 일종인가? 들어본 적 없는데……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  나… 나도 몰라… 나도 이런 아츠는 들어본 적 없다고……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  대장의 아츠 능력은 대단하지만…… 사실, 대장이라도 이런 사람들에게는 어쩔 수 없을 거야……
+    <t xml:space="preserve">[name="머드락"]  ……이것도 라이타니엔 아츠의 일종인가? 들어본 적 없는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  나… 나도 몰라… 나도 이런 아츠는 들어본 적 없다고……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  대장의 아츠 능력은 대단하지만…… 사실, 대장이라도 이런 사람들에게는 어쩔 수 없을 거야……
 </t>
   </si>
   <si>
@@ -3600,11 +3600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  뭐지!? 무슨 일이지!?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  내 몸이…… 오리지늄 결정이 움직이고 있어, 그것들이 내 몸안에서…… 나… 나는… 으아아아!!!!!
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  뭐지!? 무슨 일이지!?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  내 몸이…… 오리지늄 결정이 움직이고 있어, 그것들이 내 몸안에서…… 나… 나는… 으아아아!!!!!
 </t>
   </si>
   <si>
@@ -3728,7 +3728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">우리는 라이타니아에서 출발해 카즈델로 돌아가려던 참이었다.
+    <t xml:space="preserve">우리는 라이타니엔에서 출발해 카즈델로 돌아가려던 참이었다.
 </t>
   </si>
   <si>
@@ -3768,7 +3768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  ……머드락.
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  ……머드락.
 </t>
   </si>
   <si>
@@ -3776,19 +3776,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  그 추적병들의 단서를…… 찾은 거 같아.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  그들의 오리지늄 아츠는…… 감염자의 목숨을 가지고 노는 오리지늄 아츠야……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  그런 건 이미 존재하지 않겠지만…… 몇몇 귀족들은 여전히 연구를 계속하고 있지……
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  아무래도 그 탑의 시종인 것 같아. 아니면 아츠 연구원일 수도…… 그들은……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  그 추적병들의 단서를…… 찾은 거 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  그들의 오리지늄 아츠는…… 감염자의 목숨을 가지고 노는 오리지늄 아츠야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  그런 건 이미 존재하지 않겠지만…… 몇몇 귀족들은 여전히 연구를 계속하고 있지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  아무래도 그 탑의 시종인 것 같아. 아니면 아츠 연구원일 수도…… 그들은……
 </t>
   </si>
   <si>
@@ -3824,7 +3824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  ……그곳이 우리의 목적지야?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  ……그곳이 우리의 목적지야?
 </t>
   </si>
   <si>
@@ -3844,7 +3844,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  ……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  ……
 </t>
   </si>
   <si>
@@ -3864,7 +3864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  미, 미안해…… 우린……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  미, 미안해…… 우린……
 </t>
   </si>
   <si>
@@ -3900,7 +3900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="살카즈 전사"]  ……그거 알아? 난 눈에 보이는 라이타니아 사람들이랑 유격전을 했던 날들이 그리워지기 시작했어.
+    <t xml:space="preserve">[name="살카즈 전사"]  ……그거 알아? 난 눈에 보이는 라이타니엔 사람들이랑 유격전을 했던 날들이 그리워지기 시작했어.
 </t>
   </si>
   <si>
@@ -3996,7 +3996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  이후의 삶? 우리, 드디어 도망치지 않아도 되는 거야……?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  이후의 삶? 우리, 드디어 도망치지 않아도 되는 거야……?
 </t>
   </si>
   <si>
@@ -4024,7 +4024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아를 떠나기 전, 나는 줄곧 망설였었다.
+    <t xml:space="preserve">라이타니엔을 떠나기 전, 나는 줄곧 망설였었다.
 </t>
   </si>
   <si>
@@ -4032,7 +4032,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">라이타니아에서의 일로 정말 많은 걸 배웠다.
+    <t xml:space="preserve">라이타니엔에서의 일로 정말 많은 걸 배웠다.
 </t>
   </si>
   <si>
@@ -4108,7 +4108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  이건……? 해골? 살카즈의 유해인가?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  이건……? 해골? 살카즈의 유해인가?
 </t>
   </si>
   <si>
@@ -4124,7 +4124,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  하지만, 네 아츠를 쓰면 되잖아……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  하지만, 네 아츠를 쓰면 되잖아……
 </t>
   </si>
   <si>
@@ -4136,7 +4136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  아, 그러지……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  아, 그러지……
 </t>
   </si>
   <si>
@@ -4188,7 +4188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  ……어? 머드락, 그럼 너희는?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  ……어? 머드락, 그럼 너희는?
 </t>
   </si>
   <si>
@@ -4200,7 +4200,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  잠깐만……! 너희 말은……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  잠깐만……! 너희 말은……
 </t>
   </si>
   <si>
@@ -4212,7 +4212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  너희, 너희는 기껏 우리를 고향에 데려와 줘놓고, 왜 이제 와서 사서 죽으려는 거지……!?
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  너희, 너희는 기껏 우리를 고향에 데려와 줘놓고, 왜 이제 와서 사서 죽으려는 거지……!?
 </t>
   </si>
   <si>
@@ -4224,7 +4224,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이타니아 감염자"]  하지만 우리는……
+    <t xml:space="preserve">[name="라이타니엔 감염자"]  하지만 우리는……
 </t>
   </si>
   <si>
@@ -4304,7 +4304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="위치킹이 사라진지 어언 수십 년, 쌍둥이 여황제가 즉위할 줄은……;……라이타니아에 아직도 위치킹의 잔재를 탐구하는 어리석은 자가 있을 줄이야.",values="1;2")]
+    <t xml:space="preserve">[Decision(options="위치킹이 사라진지 어언 수십 년, 쌍둥이 여황제가 즉위할 줄은……;……라이타니엔에 아직도 위치킹의 잔재를 탐구하는 어리석은 자가 있을 줄이야.",values="1;2")]
 </t>
   </si>
   <si>
@@ -4388,7 +4388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="머드락"]  ……너는 라이타니아 사람이 아니군, 특이한 느낌이 들어…… 하지만 이렇게 어린데……
+    <t xml:space="preserve">[name="머드락"]  ……너는 라이타니엔 사람이 아니군, 특이한 느낌이 들어…… 하지만 이렇게 어린데……
 </t>
   </si>
   <si>
